--- a/Time plan.xlsx
+++ b/Time plan.xlsx
@@ -309,6 +309,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,15 +328,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,7 +640,7 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B7"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -662,10 +662,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
@@ -716,8 +716,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -769,24 +769,24 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20">
         <f t="shared" ref="R9:R27" si="0">SUM(C9:Q9)</f>
         <v>1</v>
       </c>
@@ -798,25 +798,25 @@
       <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="21">
         <v>2</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="21">
         <v>2</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
       <c r="R10" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -827,26 +827,26 @@
       <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="20">
         <v>2</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="20">
         <v>2</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -858,49 +858,49 @@
       <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="P12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="Q12" s="25">
+      <c r="C12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="21">
         <v>0.5</v>
       </c>
       <c r="R12" s="9">
@@ -913,28 +913,28 @@
       <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24">
+      <c r="C13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -946,27 +946,27 @@
       <c r="B14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22">
         <v>3</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22">
         <v>2</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="22">
         <v>2</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
       <c r="R14" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -977,24 +977,24 @@
       <c r="B15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20">
         <v>3</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1006,30 +1006,32 @@
       <c r="B16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21">
         <v>3</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25">
+      <c r="F16" s="21">
+        <v>5</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21">
         <v>2</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="21">
         <v>2</v>
       </c>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
       <c r="R16" s="9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -1037,24 +1039,24 @@
       <c r="B17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20">
         <v>2</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1066,25 +1068,25 @@
       <c r="B18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21">
         <v>8</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="21">
         <v>8</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
       <c r="R18" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1095,22 +1097,22 @@
       <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1122,34 +1124,32 @@
       <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25">
-        <v>1</v>
-      </c>
-      <c r="F20" s="25">
-        <v>8</v>
-      </c>
-      <c r="G20" s="25">
-        <v>8</v>
-      </c>
-      <c r="H20" s="25">
-        <v>8</v>
-      </c>
-      <c r="I20" s="25">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
         <v>5</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
+      <c r="G20" s="21">
+        <v>10</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>10</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
       <c r="R20" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -1157,26 +1157,26 @@
       <c r="B21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24">
-        <v>1</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20">
+        <v>2</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -1186,23 +1186,23 @@
       <c r="B22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21">
         <v>4</v>
       </c>
-      <c r="Q22" s="25">
+      <c r="Q22" s="21">
         <v>4</v>
       </c>
       <c r="R22" s="9">
@@ -1215,22 +1215,22 @@
       <c r="B23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1242,21 +1242,21 @@
       <c r="B24" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
       <c r="R24" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1267,22 +1267,22 @@
       <c r="B25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1294,21 +1294,21 @@
       <c r="B26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
       <c r="R26" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1319,22 +1319,22 @@
       <c r="B27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Time plan.xlsx
+++ b/Time plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <t>Backend programming for Assessment Designer</t>
   </si>
   <si>
-    <t>Semester 2 2016</t>
+    <t>Semester 1 2016</t>
   </si>
 </sst>
 </file>
@@ -640,28 +640,28 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="15" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="17"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="15" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="4"/>
@@ -735,7 +735,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="19"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>5</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>5</v>
@@ -833,7 +833,9 @@
       <c r="D11" s="20">
         <v>2</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="20">
+        <v>4</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
@@ -848,10 +850,10 @@
       <c r="Q11" s="20"/>
       <c r="R11" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>3</v>
       </c>
@@ -908,7 +910,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>5</v>
@@ -939,7 +941,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>4</v>
       </c>
@@ -957,11 +959,9 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
-      <c r="L14" s="22">
-        <v>2</v>
-      </c>
+      <c r="L14" s="22"/>
       <c r="M14" s="22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
@@ -969,10 +969,10 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="9">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
         <v>5</v>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>5</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -1022,19 +1022,19 @@
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O16" s="21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="9">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
         <v>5</v>
@@ -1061,7 +1061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>6</v>
       </c>
@@ -1075,13 +1075,13 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="21">
-        <v>8</v>
-      </c>
+      <c r="J18" s="21"/>
       <c r="K18" s="21">
-        <v>8</v>
-      </c>
-      <c r="L18" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="L18" s="21">
+        <v>10</v>
+      </c>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
@@ -1089,10 +1089,10 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="9">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12" t="s">
         <v>5</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>7</v>
       </c>
@@ -1127,9 +1127,7 @@
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>5</v>
-      </c>
+      <c r="F20" s="21"/>
       <c r="G20" s="21">
         <v>10</v>
       </c>
@@ -1139,7 +1137,9 @@
       <c r="I20" s="21">
         <v>10</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="21">
+        <v>10</v>
+      </c>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -1149,10 +1149,10 @@
       <c r="Q20" s="21"/>
       <c r="R20" s="9">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
         <v>5</v>
@@ -1179,7 +1179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>10</v>
       </c>
@@ -1200,17 +1200,17 @@
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R22" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
         <v>5</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>11</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="12" t="s">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>12</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="12" t="s">
         <v>5</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1359,7 +1359,7 @@
       <c r="Q28"/>
       <c r="R28" s="17"/>
     </row>
-    <row r="29" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1379,7 +1379,7 @@
       <c r="Q29"/>
       <c r="R29" s="17"/>
     </row>
-    <row r="30" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1399,7 +1399,7 @@
       <c r="Q30"/>
       <c r="R30" s="17"/>
     </row>
-    <row r="31" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1419,7 +1419,7 @@
       <c r="Q31"/>
       <c r="R31" s="17"/>
     </row>
-    <row r="32" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>

--- a/Time plan.xlsx
+++ b/Time plan.xlsx
@@ -640,7 +640,7 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1044,9 @@
       <c r="E17" s="20">
         <v>2</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="20">
+        <v>8</v>
+      </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
@@ -1058,7 +1060,7 @@
       <c r="Q17" s="20"/>
       <c r="R17" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">

--- a/Time plan.xlsx
+++ b/Time plan.xlsx
@@ -640,7 +640,7 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,9 @@
       <c r="F17" s="20">
         <v>8</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>6</v>
+      </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -1060,7 +1062,7 @@
       <c r="Q17" s="20"/>
       <c r="R17" s="20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">

--- a/Time plan.xlsx
+++ b/Time plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -640,28 +640,28 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
-    <col min="3" max="15" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="15" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="4"/>
@@ -735,7 +735,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="19"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>5</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>5</v>
@@ -853,7 +853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>3</v>
       </c>
@@ -910,7 +910,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>5</v>
@@ -941,7 +941,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>4</v>
       </c>
@@ -972,7 +972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
         <v>5</v>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>5</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
         <v>5</v>
@@ -1065,7 +1065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>6</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="12" t="s">
         <v>5</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>7</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
         <v>5</v>
@@ -1168,7 +1168,9 @@
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="H21" s="20">
+        <v>17</v>
+      </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -1180,10 +1182,10 @@
       <c r="Q21" s="20"/>
       <c r="R21" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>10</v>
       </c>
@@ -1214,7 +1216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
         <v>5</v>
@@ -1239,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>11</v>
       </c>
@@ -1266,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="12" t="s">
         <v>5</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>12</v>
       </c>
@@ -1318,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="12" t="s">
         <v>5</v>
@@ -1343,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1363,7 +1365,7 @@
       <c r="Q28"/>
       <c r="R28" s="17"/>
     </row>
-    <row r="29" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1383,7 +1385,7 @@
       <c r="Q29"/>
       <c r="R29" s="17"/>
     </row>
-    <row r="30" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1403,7 +1405,7 @@
       <c r="Q30"/>
       <c r="R30" s="17"/>
     </row>
-    <row r="31" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1423,7 +1425,7 @@
       <c r="Q31"/>
       <c r="R31" s="17"/>
     </row>
-    <row r="32" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>

--- a/Time plan.xlsx
+++ b/Time plan.xlsx
@@ -96,16 +96,16 @@
     <t>Design of Assessment Designer GUI</t>
   </si>
   <si>
-    <t>Design of Examiner GUI</t>
-  </si>
-  <si>
-    <t>Backend programming for Examiner</t>
-  </si>
-  <si>
     <t>Backend programming for Assessment Designer</t>
   </si>
   <si>
     <t>Semester 1 2016</t>
+  </si>
+  <si>
+    <t>Design of Examinee GUI</t>
+  </si>
+  <si>
+    <t>Backend programming for Examinee</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -658,7 +658,7 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -924,21 +924,39 @@
       <c r="E13" s="20">
         <v>0.5</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="F13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0.5</v>
+      </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
+      <c r="L13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>0.5</v>
+      </c>
       <c r="R13" s="20">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -946,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22">
@@ -988,7 +1006,9 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
+      <c r="L15" s="20">
+        <v>3</v>
+      </c>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
@@ -996,7 +1016,7 @@
       <c r="Q15" s="20"/>
       <c r="R15" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1070,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -1126,7 +1146,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -1172,8 +1192,12 @@
         <v>17</v>
       </c>
       <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
+      <c r="J21" s="20">
+        <v>2</v>
+      </c>
+      <c r="K21" s="20">
+        <v>1</v>
+      </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
@@ -1182,7 +1206,7 @@
       <c r="Q21" s="20"/>
       <c r="R21" s="20">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
